--- a/new original/_Lang_Chinese/Lang/CN/Data/god_talk.xlsx
+++ b/new original/_Lang_Chinese/Lang/CN/Data/god_talk.xlsx
@@ -1087,7 +1087,7 @@
     <t xml:space="preserve">血肉之躯的不便与悲哀之处就是不得不将短暂生命中大量时间都浪费在睡觉这件事上。不过为了能让你继续服侍我，现在你就好好休息吧。</t>
   </si>
   <si>
-    <t xml:space="preserve">好吧，那我就暂时把你颈上的枷锁松开，尽情的享受难得的休息吧。</t>
+    <t xml:space="preserve">好吧，那我就暂时把你颈上的枷锁松开，尽情地享受难得的休息吧。</t>
   </si>
   <si>
     <t xml:space="preserve">尽情恢复旅途的疲劳吧，吾那不灭的赤炎将保护汝，使汝不被那些借助夜幕潜入的邪恶者打扰。</t>
